--- a/Employee_Reports21/Alvin Tumboc Cuevas Q0545.xlsx
+++ b/Employee_Reports21/Alvin Tumboc Cuevas Q0545.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1220,11 +1220,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1313,11 +1313,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>-85</v>
+        <v>-86</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1359,11 +1359,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1395,11 +1395,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1441,11 +1441,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1487,11 +1487,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1523,11 +1523,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1569,11 +1569,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1615,11 +1615,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1661,11 +1661,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1697,11 +1697,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
